--- a/Docs/lista_precos_Karams.xlsx
+++ b/Docs/lista_precos_Karams.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,14 +146,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,152 +175,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,7 +191,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,194 +201,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -585,249 +249,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -846,98 +271,188 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
-    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
-    <cellStyle name="Observação" xfId="8" builtinId="10"/>
-    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
-    <cellStyle name="Título" xfId="10" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
-    <cellStyle name="Saída" xfId="17" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
-    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
-    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Bom" xfId="22" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
-    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
-    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
-    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
-    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
-    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
-    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.599963377788629"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -952,7 +467,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Capa"/>
@@ -1232,26 +747,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="14.8571428571429" customWidth="1"/>
-    <col min="6" max="7" width="8.14285714285714" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1326,32 +841,32 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="6">
-        <v>1898.2404</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="H2" s="7">
+        <v>1898.2403999999999</v>
+      </c>
+      <c r="I2" s="8">
         <v>1935.2256</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="7">
         <v>1993.3452</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>2046.1812</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="7">
         <v>2104.3008</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>2162.4204</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="7">
         <v>2220.54</v>
       </c>
-      <c r="O2" s="9">
-        <v>2320.9284</v>
-      </c>
-      <c r="P2" s="10">
-        <v>2484.72</v>
+      <c r="O2" s="8">
+        <v>2320.9283999999998</v>
+      </c>
+      <c r="P2" s="9">
+        <v>2484.7199999999998</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1376,32 +891,32 @@
       <c r="G3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="7">
         <v>2047.752</v>
       </c>
-      <c r="I3" s="9">
-        <v>2087.736</v>
-      </c>
-      <c r="J3" s="6">
-        <v>2150.568</v>
-      </c>
-      <c r="K3" s="9">
-        <v>2207.688</v>
-      </c>
-      <c r="L3" s="6">
+      <c r="I3" s="8">
+        <v>2087.7359999999999</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2150.5680000000002</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2207.6880000000001</v>
+      </c>
+      <c r="L3" s="7">
         <v>2270.52</v>
       </c>
-      <c r="M3" s="9">
-        <v>2333.352</v>
-      </c>
-      <c r="N3" s="6">
-        <v>2396.184</v>
-      </c>
-      <c r="O3" s="9">
+      <c r="M3" s="8">
+        <v>2333.3519999999999</v>
+      </c>
+      <c r="N3" s="7">
+        <v>2396.1840000000002</v>
+      </c>
+      <c r="O3" s="8">
         <v>2504.712</v>
       </c>
-      <c r="P3" s="10">
-        <v>2681.784</v>
+      <c r="P3" s="9">
+        <v>2681.7840000000001</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1426,32 +941,32 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="6">
-        <v>2225.8236</v>
-      </c>
-      <c r="I4" s="9">
-        <v>2268.8064</v>
-      </c>
-      <c r="J4" s="6">
-        <v>2336.3508</v>
-      </c>
-      <c r="K4" s="9">
-        <v>2397.7548</v>
-      </c>
-      <c r="L4" s="6">
-        <v>2465.2992</v>
-      </c>
-      <c r="M4" s="9">
-        <v>2532.8436</v>
-      </c>
-      <c r="N4" s="6">
-        <v>2600.388</v>
-      </c>
-      <c r="O4" s="9">
-        <v>2717.0556</v>
-      </c>
-      <c r="P4" s="10">
-        <v>2907.408</v>
+      <c r="H4" s="7">
+        <v>2225.8236000000002</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2268.8063999999999</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2336.3508000000002</v>
+      </c>
+      <c r="K4" s="8">
+        <v>2397.7548000000002</v>
+      </c>
+      <c r="L4" s="7">
+        <v>2465.2991999999999</v>
+      </c>
+      <c r="M4" s="8">
+        <v>2532.8436000000002</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2600.3879999999999</v>
+      </c>
+      <c r="O4" s="8">
+        <v>2717.0556000000001</v>
+      </c>
+      <c r="P4" s="9">
+        <v>2907.4079999999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1465,7 +980,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="4">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -1476,32 +991,32 @@
       <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>2375.3352</v>
       </c>
-      <c r="I5" s="9">
-        <v>2421.3168</v>
-      </c>
-      <c r="J5" s="6">
-        <v>2493.5736</v>
-      </c>
-      <c r="K5" s="9">
-        <v>2559.2616</v>
-      </c>
-      <c r="L5" s="6">
-        <v>2631.5184</v>
-      </c>
-      <c r="M5" s="9">
+      <c r="I5" s="8">
+        <v>2421.3168000000001</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2493.5736000000002</v>
+      </c>
+      <c r="K5" s="8">
+        <v>2559.2615999999998</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2631.5183999999999</v>
+      </c>
+      <c r="M5" s="8">
         <v>2703.7752</v>
       </c>
-      <c r="N5" s="6">
-        <v>2776.032</v>
-      </c>
-      <c r="O5" s="9">
-        <v>2900.8392</v>
-      </c>
-      <c r="P5" s="10">
-        <v>3104.472</v>
+      <c r="N5" s="7">
+        <v>2776.0320000000002</v>
+      </c>
+      <c r="O5" s="8">
+        <v>2900.8391999999999</v>
+      </c>
+      <c r="P5" s="9">
+        <v>3104.4720000000002</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1526,32 +1041,32 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="6">
-        <v>2524.8468</v>
-      </c>
-      <c r="I6" s="9">
-        <v>2573.8272</v>
-      </c>
-      <c r="J6" s="6">
-        <v>2650.7964</v>
-      </c>
-      <c r="K6" s="9">
-        <v>2720.7684</v>
-      </c>
-      <c r="L6" s="6">
-        <v>2797.7376</v>
-      </c>
-      <c r="M6" s="9">
-        <v>2874.7068</v>
-      </c>
-      <c r="N6" s="6">
-        <v>2951.676</v>
-      </c>
-      <c r="O6" s="9">
-        <v>3084.6228</v>
-      </c>
-      <c r="P6" s="10">
-        <v>3301.536</v>
+      <c r="H6" s="7">
+        <v>2524.8467999999998</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2573.8272000000002</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2650.7964000000002</v>
+      </c>
+      <c r="K6" s="8">
+        <v>2720.7683999999999</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2797.7375999999999</v>
+      </c>
+      <c r="M6" s="8">
+        <v>2874.7067999999999</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2951.6759999999999</v>
+      </c>
+      <c r="O6" s="8">
+        <v>3084.6228000000001</v>
+      </c>
+      <c r="P6" s="9">
+        <v>3301.5360000000001</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1576,31 +1091,31 @@
       <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="6">
-        <v>2674.3584</v>
-      </c>
-      <c r="I7" s="9">
-        <v>2726.3376</v>
-      </c>
-      <c r="J7" s="6">
-        <v>2808.0192</v>
-      </c>
-      <c r="K7" s="9">
+      <c r="H7" s="7">
+        <v>2674.3584000000001</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2726.3375999999998</v>
+      </c>
+      <c r="J7" s="7">
+        <v>2808.0192000000002</v>
+      </c>
+      <c r="K7" s="8">
         <v>2882.2752</v>
       </c>
-      <c r="L7" s="6">
-        <v>2963.9568</v>
-      </c>
-      <c r="M7" s="9">
-        <v>3045.6384</v>
-      </c>
-      <c r="N7" s="6">
+      <c r="L7" s="7">
+        <v>2963.9567999999999</v>
+      </c>
+      <c r="M7" s="8">
+        <v>3045.6383999999998</v>
+      </c>
+      <c r="N7" s="7">
         <v>3127.32</v>
       </c>
-      <c r="O7" s="9">
-        <v>3268.4064</v>
-      </c>
-      <c r="P7" s="10">
+      <c r="O7" s="8">
+        <v>3268.4063999999998</v>
+      </c>
+      <c r="P7" s="9">
         <v>3498.6</v>
       </c>
     </row>
@@ -1611,11 +1126,11 @@
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="4">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1626,32 +1141,32 @@
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="8">
-        <v>2460.801</v>
+      <c r="H8" s="10">
+        <v>2460.8009999999999</v>
       </c>
       <c r="I8" s="11">
-        <v>2513.28</v>
-      </c>
-      <c r="J8" s="8">
-        <v>2595.747</v>
+        <v>2513.2800000000002</v>
+      </c>
+      <c r="J8" s="10">
+        <v>2595.7469999999998</v>
       </c>
       <c r="K8" s="11">
-        <v>2670.717</v>
-      </c>
-      <c r="L8" s="8">
-        <v>2753.184</v>
+        <v>2670.7170000000001</v>
+      </c>
+      <c r="L8" s="10">
+        <v>2753.1840000000002</v>
       </c>
       <c r="M8" s="11">
-        <v>2835.651</v>
-      </c>
-      <c r="N8" s="8">
-        <v>2918.118</v>
+        <v>2835.6509999999998</v>
+      </c>
+      <c r="N8" s="10">
+        <v>2918.1179999999999</v>
       </c>
       <c r="O8" s="11">
-        <v>3060.561</v>
-      </c>
-      <c r="P8" s="10">
-        <v>3292.968</v>
+        <v>3060.5610000000001</v>
+      </c>
+      <c r="P8" s="9">
+        <v>3292.9679999999998</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1661,7 +1176,7 @@
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="4">
@@ -1676,32 +1191,32 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="8">
-        <v>2610.3126</v>
+      <c r="H9" s="10">
+        <v>2610.3126000000002</v>
       </c>
       <c r="I9" s="11">
-        <v>2665.7904</v>
-      </c>
-      <c r="J9" s="8">
-        <v>2752.9698</v>
+        <v>2665.7903999999999</v>
+      </c>
+      <c r="J9" s="10">
+        <v>2752.9697999999999</v>
       </c>
       <c r="K9" s="11">
-        <v>2832.2238</v>
-      </c>
-      <c r="L9" s="8">
-        <v>2919.4032</v>
+        <v>2832.2238000000002</v>
+      </c>
+      <c r="L9" s="10">
+        <v>2919.4032000000002</v>
       </c>
       <c r="M9" s="11">
-        <v>3006.5826</v>
-      </c>
-      <c r="N9" s="8">
-        <v>3093.762</v>
+        <v>3006.5826000000002</v>
+      </c>
+      <c r="N9" s="10">
+        <v>3093.7620000000002</v>
       </c>
       <c r="O9" s="11">
-        <v>3244.3446</v>
-      </c>
-      <c r="P9" s="10">
-        <v>3490.032</v>
+        <v>3244.3445999999999</v>
+      </c>
+      <c r="P9" s="9">
+        <v>3490.0320000000002</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1711,7 +1226,7 @@
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="4">
@@ -1726,31 +1241,31 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="10">
         <v>2759.8242</v>
       </c>
       <c r="I10" s="11">
         <v>2818.3008</v>
       </c>
-      <c r="J10" s="8">
-        <v>2910.1926</v>
+      <c r="J10" s="10">
+        <v>2910.1925999999999</v>
       </c>
       <c r="K10" s="11">
-        <v>2993.7306</v>
-      </c>
-      <c r="L10" s="8">
-        <v>3085.6224</v>
+        <v>2993.7305999999999</v>
+      </c>
+      <c r="L10" s="10">
+        <v>3085.6224000000002</v>
       </c>
       <c r="M10" s="11">
-        <v>3177.5142</v>
-      </c>
-      <c r="N10" s="8">
-        <v>3269.406</v>
+        <v>3177.5142000000001</v>
+      </c>
+      <c r="N10" s="10">
+        <v>3269.4059999999999</v>
       </c>
       <c r="O10" s="11">
-        <v>3428.1282</v>
-      </c>
-      <c r="P10" s="10">
+        <v>3428.1282000000001</v>
+      </c>
+      <c r="P10" s="9">
         <v>3687.096</v>
       </c>
     </row>
@@ -1761,7 +1276,7 @@
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="4">
@@ -1776,31 +1291,31 @@
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="8">
-        <v>2909.3358</v>
+      <c r="H11" s="10">
+        <v>2909.3357999999998</v>
       </c>
       <c r="I11" s="11">
-        <v>2970.8112</v>
-      </c>
-      <c r="J11" s="8">
-        <v>3067.4154</v>
+        <v>2970.8112000000001</v>
+      </c>
+      <c r="J11" s="10">
+        <v>3067.4153999999999</v>
       </c>
       <c r="K11" s="11">
         <v>3155.2374</v>
       </c>
-      <c r="L11" s="8">
-        <v>3251.8416</v>
+      <c r="L11" s="10">
+        <v>3251.8416000000002</v>
       </c>
       <c r="M11" s="11">
         <v>3348.4458</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="10">
         <v>3445.05</v>
       </c>
       <c r="O11" s="11">
-        <v>3611.9118</v>
-      </c>
-      <c r="P11" s="10">
+        <v>3611.9117999999999</v>
+      </c>
+      <c r="P11" s="9">
         <v>3884.16</v>
       </c>
     </row>
@@ -1811,7 +1326,7 @@
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="4">
@@ -1826,32 +1341,32 @@
       <c r="G12" s="2">
         <v>0</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="10">
         <v>3098.8314</v>
       </c>
       <c r="I12" s="11">
-        <v>3163.3056</v>
-      </c>
-      <c r="J12" s="8">
-        <v>3264.6222</v>
+        <v>3163.3056000000001</v>
+      </c>
+      <c r="J12" s="10">
+        <v>3264.6221999999998</v>
       </c>
       <c r="K12" s="11">
         <v>3356.7282</v>
       </c>
-      <c r="L12" s="8">
-        <v>3458.0448</v>
+      <c r="L12" s="10">
+        <v>3458.0448000000001</v>
       </c>
       <c r="M12" s="11">
-        <v>3559.3614</v>
-      </c>
-      <c r="N12" s="8">
-        <v>3660.678</v>
+        <v>3559.3613999999998</v>
+      </c>
+      <c r="N12" s="10">
+        <v>3660.6779999999999</v>
       </c>
       <c r="O12" s="11">
         <v>3835.6794</v>
       </c>
-      <c r="P12" s="10">
-        <v>4121.208</v>
+      <c r="P12" s="9">
+        <v>4121.2079999999996</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1861,7 +1376,7 @@
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="4">
@@ -1876,32 +1391,32 @@
       <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="H13" s="8">
-        <v>3248.343</v>
+      <c r="H13" s="10">
+        <v>3248.3429999999998</v>
       </c>
       <c r="I13" s="11">
-        <v>3315.816</v>
-      </c>
-      <c r="J13" s="8">
-        <v>3421.845</v>
+        <v>3315.8159999999998</v>
+      </c>
+      <c r="J13" s="10">
+        <v>3421.8449999999998</v>
       </c>
       <c r="K13" s="11">
-        <v>3518.235</v>
-      </c>
-      <c r="L13" s="8">
-        <v>3624.264</v>
+        <v>3518.2350000000001</v>
+      </c>
+      <c r="L13" s="10">
+        <v>3624.2640000000001</v>
       </c>
       <c r="M13" s="11">
-        <v>3730.293</v>
-      </c>
-      <c r="N13" s="8">
-        <v>3836.322</v>
+        <v>3730.2930000000001</v>
+      </c>
+      <c r="N13" s="10">
+        <v>3836.3220000000001</v>
       </c>
       <c r="O13" s="11">
-        <v>4019.463</v>
-      </c>
-      <c r="P13" s="10">
-        <v>4318.272</v>
+        <v>4019.4630000000002</v>
+      </c>
+      <c r="P13" s="9">
+        <v>4318.2719999999999</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1911,7 +1426,7 @@
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4">
@@ -1926,32 +1441,32 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="8">
-        <v>2395.1844</v>
+      <c r="H14" s="10">
+        <v>2395.1844000000001</v>
       </c>
       <c r="I14" s="11">
-        <v>2432.1696</v>
-      </c>
-      <c r="J14" s="8">
-        <v>2490.2892</v>
+        <v>2432.1696000000002</v>
+      </c>
+      <c r="J14" s="10">
+        <v>2490.2892000000002</v>
       </c>
       <c r="K14" s="11">
-        <v>2543.1252</v>
-      </c>
-      <c r="L14" s="8">
-        <v>2601.2448</v>
+        <v>2543.1251999999999</v>
+      </c>
+      <c r="L14" s="10">
+        <v>2601.2447999999999</v>
       </c>
       <c r="M14" s="11">
-        <v>2659.3644</v>
-      </c>
-      <c r="N14" s="8">
-        <v>2717.484</v>
+        <v>2659.3643999999999</v>
+      </c>
+      <c r="N14" s="10">
+        <v>2717.4839999999999</v>
       </c>
       <c r="O14" s="11">
-        <v>2817.8724</v>
-      </c>
-      <c r="P14" s="10">
-        <v>2981.664</v>
+        <v>2817.8724000000002</v>
+      </c>
+      <c r="P14" s="9">
+        <v>2981.6640000000002</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1961,7 +1476,7 @@
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="4">
@@ -1976,32 +1491,32 @@
       <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="10">
         <v>2541.84</v>
       </c>
       <c r="I15" s="11">
-        <v>2581.824</v>
-      </c>
-      <c r="J15" s="8">
-        <v>2644.656</v>
+        <v>2581.8240000000001</v>
+      </c>
+      <c r="J15" s="10">
+        <v>2644.6559999999999</v>
       </c>
       <c r="K15" s="11">
-        <v>2701.776</v>
-      </c>
-      <c r="L15" s="8">
-        <v>2764.608</v>
+        <v>2701.7759999999998</v>
+      </c>
+      <c r="L15" s="10">
+        <v>2764.6080000000002</v>
       </c>
       <c r="M15" s="11">
         <v>2827.44</v>
       </c>
-      <c r="N15" s="8">
-        <v>2890.272</v>
+      <c r="N15" s="10">
+        <v>2890.2719999999999</v>
       </c>
       <c r="O15" s="11">
         <v>2998.8</v>
       </c>
-      <c r="P15" s="10">
-        <v>3175.872</v>
+      <c r="P15" s="9">
+        <v>3175.8719999999998</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2011,7 +1526,7 @@
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="4">
@@ -2026,32 +1541,32 @@
       <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="10">
         <v>2691.3516</v>
       </c>
       <c r="I16" s="11">
-        <v>2734.3344</v>
-      </c>
-      <c r="J16" s="8">
+        <v>2734.3344000000002</v>
+      </c>
+      <c r="J16" s="10">
         <v>2801.8788</v>
       </c>
       <c r="K16" s="11">
         <v>2863.2828</v>
       </c>
-      <c r="L16" s="8">
-        <v>2930.8272</v>
+      <c r="L16" s="10">
+        <v>2930.8272000000002</v>
       </c>
       <c r="M16" s="11">
-        <v>2998.3716</v>
-      </c>
-      <c r="N16" s="8">
-        <v>3065.916</v>
+        <v>2998.3715999999999</v>
+      </c>
+      <c r="N16" s="10">
+        <v>3065.9160000000002</v>
       </c>
       <c r="O16" s="11">
-        <v>3182.5836</v>
-      </c>
-      <c r="P16" s="10">
-        <v>3372.936</v>
+        <v>3182.5835999999999</v>
+      </c>
+      <c r="P16" s="9">
+        <v>3372.9360000000001</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2061,7 +1576,7 @@
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="4">
@@ -2076,31 +1591,31 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="8">
-        <v>2840.8632</v>
+      <c r="H17" s="10">
+        <v>2840.8631999999998</v>
       </c>
       <c r="I17" s="11">
-        <v>2886.8448</v>
-      </c>
-      <c r="J17" s="8">
+        <v>2886.8447999999999</v>
+      </c>
+      <c r="J17" s="10">
         <v>2959.1016</v>
       </c>
       <c r="K17" s="11">
-        <v>3024.7896</v>
-      </c>
-      <c r="L17" s="8">
-        <v>3097.0464</v>
+        <v>3024.7896000000001</v>
+      </c>
+      <c r="L17" s="10">
+        <v>3097.0464000000002</v>
       </c>
       <c r="M17" s="11">
-        <v>3169.3032</v>
-      </c>
-      <c r="N17" s="8">
+        <v>3169.3031999999998</v>
+      </c>
+      <c r="N17" s="10">
         <v>3241.56</v>
       </c>
       <c r="O17" s="11">
-        <v>3366.3672</v>
-      </c>
-      <c r="P17" s="10">
+        <v>3366.3672000000001</v>
+      </c>
+      <c r="P17" s="9">
         <v>3570</v>
       </c>
     </row>
@@ -2111,7 +1626,7 @@
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="4">
@@ -2126,32 +1641,32 @@
       <c r="G18" s="2">
         <v>0</v>
       </c>
-      <c r="H18" s="8">
-        <v>2990.3748</v>
+      <c r="H18" s="10">
+        <v>2990.3748000000001</v>
       </c>
       <c r="I18" s="11">
         <v>3039.3552</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="10">
         <v>3116.3244</v>
       </c>
       <c r="K18" s="11">
-        <v>3186.2964</v>
-      </c>
-      <c r="L18" s="8">
-        <v>3263.2656</v>
+        <v>3186.2964000000002</v>
+      </c>
+      <c r="L18" s="10">
+        <v>3263.2656000000002</v>
       </c>
       <c r="M18" s="11">
-        <v>3340.2348</v>
-      </c>
-      <c r="N18" s="8">
-        <v>3417.204</v>
+        <v>3340.2348000000002</v>
+      </c>
+      <c r="N18" s="10">
+        <v>3417.2040000000002</v>
       </c>
       <c r="O18" s="11">
-        <v>3550.1508</v>
-      </c>
-      <c r="P18" s="10">
-        <v>3767.064</v>
+        <v>3550.1507999999999</v>
+      </c>
+      <c r="P18" s="9">
+        <v>3767.0639999999999</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2161,7 +1676,7 @@
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="4">
@@ -2176,117 +1691,117 @@
       <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="8">
-        <v>3139.8864</v>
+      <c r="H19" s="10">
+        <v>3139.8863999999999</v>
       </c>
       <c r="I19" s="11">
-        <v>3191.8656</v>
-      </c>
-      <c r="J19" s="8">
+        <v>3191.8656000000001</v>
+      </c>
+      <c r="J19" s="10">
         <v>3273.5472</v>
       </c>
       <c r="K19" s="11">
-        <v>3347.8032</v>
-      </c>
-      <c r="L19" s="8">
-        <v>3429.4848</v>
+        <v>3347.8031999999998</v>
+      </c>
+      <c r="L19" s="10">
+        <v>3429.4848000000002</v>
       </c>
       <c r="M19" s="11">
-        <v>3511.1664</v>
-      </c>
-      <c r="N19" s="8">
+        <v>3511.1664000000001</v>
+      </c>
+      <c r="N19" s="10">
         <v>3592.848</v>
       </c>
       <c r="O19" s="11">
-        <v>3733.9344</v>
-      </c>
-      <c r="P19" s="10">
-        <v>3964.128</v>
+        <v>3733.9344000000001</v>
+      </c>
+      <c r="P19" s="9">
+        <v>3964.1280000000002</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C7">
-    <cfRule type="expression" dxfId="0" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>ROW()=CELL("LIN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C13">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>ROW()=CELL("LIN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C19">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>ROW()=CELL("LIN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D7">
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>$C2&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D13">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>$C8&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D19">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>$C14&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="expression" dxfId="1" priority="16">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>$D2&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E13">
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$D8&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E19">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>$D14&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F7">
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>ROW()=CELL("LIN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F13">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>ROW()=CELL("LIN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F19">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>ROW()=CELL("LIN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E7">
-    <cfRule type="expression" dxfId="0" priority="15">
+    <cfRule type="expression" dxfId="5" priority="15">
       <formula>ROW()=CELL("LIN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:P7">
-    <cfRule type="expression" dxfId="0" priority="18">
+    <cfRule type="expression" dxfId="4" priority="18">
       <formula>ROW()=CELL("LIN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E13">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>ROW()=CELL("LIN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:P13">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>ROW()=CELL("LIN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E19">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>ROW()=CELL("LIN")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2304,6 +1819,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>